--- a/MarketData.xlsx
+++ b/MarketData.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Shopping-Time-Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4E8BCC-BAC4-4D2A-ADF6-A7C8B1506A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67A64BD-D614-4C69-BC7A-F966A2EF0EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5232" yWindow="1164" windowWidth="17004" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Aisles" sheetId="1" r:id="rId1"/>
-    <sheet name="Products" sheetId="2" r:id="rId2"/>
+    <sheet name="Products" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="103">
-  <si>
-    <t>Entrance</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="100">
   <si>
     <t>Bakery</t>
   </si>
@@ -49,9 +45,6 @@
     <t>Snacks</t>
   </si>
   <si>
-    <t>Checkout</t>
-  </si>
-  <si>
     <t>bread</t>
   </si>
   <si>
@@ -329,9 +322,6 @@
   </si>
   <si>
     <t>feta</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
   <si>
     <t>Waiting Time</t>
@@ -661,432 +651,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A8ADED-E5C5-456E-B980-DDCE5A91BF76}">
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1095,12 +686,12 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1109,12 +700,12 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1123,12 +714,12 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1137,12 +728,12 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>15</v>
@@ -1151,12 +742,12 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -1165,12 +756,12 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1179,12 +770,12 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1193,12 +784,12 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1207,12 +798,12 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1221,12 +812,12 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1235,12 +826,12 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1249,12 +840,12 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1263,12 +854,12 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1277,12 +868,12 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1291,12 +882,12 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -1305,12 +896,12 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18">
         <v>7</v>
@@ -1319,12 +910,12 @@
         <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -1333,12 +924,12 @@
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1347,12 +938,12 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1361,12 +952,12 @@
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1375,12 +966,12 @@
         <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>7</v>
@@ -1389,12 +980,12 @@
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>7</v>
@@ -1403,12 +994,12 @@
         <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -1417,12 +1008,12 @@
         <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1431,12 +1022,12 @@
         <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>10</v>
@@ -1445,12 +1036,12 @@
         <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1459,12 +1050,12 @@
         <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1473,12 +1064,12 @@
         <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B30">
         <v>10</v>
@@ -1487,12 +1078,12 @@
         <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>7</v>
@@ -1501,12 +1092,12 @@
         <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1515,12 +1106,12 @@
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1529,12 +1120,12 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1543,12 +1134,12 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1557,12 +1148,12 @@
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1571,12 +1162,12 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1585,12 +1176,12 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1599,12 +1190,12 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1613,12 +1204,12 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1627,12 +1218,12 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1641,12 +1232,12 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1655,12 +1246,12 @@
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1669,12 +1260,12 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1683,12 +1274,12 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1697,12 +1288,12 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1711,12 +1302,12 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1725,12 +1316,12 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B48">
         <v>6</v>
@@ -1739,12 +1330,12 @@
         <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1753,12 +1344,12 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -1767,12 +1358,12 @@
         <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -1781,12 +1372,12 @@
         <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -1795,12 +1386,12 @@
         <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -1809,12 +1400,12 @@
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -1823,12 +1414,12 @@
         <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -1837,12 +1428,12 @@
         <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -1851,12 +1442,12 @@
         <v>40</v>
       </c>
       <c r="D56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B57">
         <v>6</v>
@@ -1865,12 +1456,12 @@
         <v>45</v>
       </c>
       <c r="D57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1879,12 +1470,12 @@
         <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1893,12 +1484,12 @@
         <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -1907,12 +1498,12 @@
         <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -1921,12 +1512,12 @@
         <v>40</v>
       </c>
       <c r="D61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1935,12 +1526,12 @@
         <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1949,12 +1540,12 @@
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -1963,12 +1554,12 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1977,12 +1568,12 @@
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -1991,12 +1582,12 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -2005,12 +1596,12 @@
         <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -2019,12 +1610,12 @@
         <v>25</v>
       </c>
       <c r="D68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -2033,12 +1624,12 @@
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -2047,12 +1638,12 @@
         <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -2061,12 +1652,12 @@
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -2075,12 +1666,12 @@
         <v>35</v>
       </c>
       <c r="D72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -2089,12 +1680,12 @@
         <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -2103,12 +1694,12 @@
         <v>35</v>
       </c>
       <c r="D74" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -2117,12 +1708,12 @@
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -2131,12 +1722,12 @@
         <v>5</v>
       </c>
       <c r="D76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -2145,12 +1736,12 @@
         <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -2159,12 +1750,12 @@
         <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -2173,12 +1764,12 @@
         <v>20</v>
       </c>
       <c r="D79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -2187,12 +1778,12 @@
         <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -2201,12 +1792,12 @@
         <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -2215,12 +1806,12 @@
         <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -2229,12 +1820,12 @@
         <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -2243,12 +1834,12 @@
         <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -2257,12 +1848,12 @@
         <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -2271,12 +1862,12 @@
         <v>5</v>
       </c>
       <c r="D86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -2285,12 +1876,12 @@
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -2299,12 +1890,12 @@
         <v>12</v>
       </c>
       <c r="D88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -2313,12 +1904,12 @@
         <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -2327,12 +1918,12 @@
         <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -2341,7 +1932,7 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
